--- a/ANOVA_RM_cholesterol.xlsx
+++ b/ANOVA_RM_cholesterol.xlsx
@@ -1,21 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kingstonuniversity-my.sharepoint.com/personal/ku11417_kingston_ac_uk/Documents/LS5022 Research skills (new)/Biostatistics lectures &amp; workshops/Statistics workshop 2/Quarto files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_91801FD38F79A8D366075C52F37BD272CA444D1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FFD92BA-C9CB-9A45-BF89-23A86D057A5D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-27220" yWindow="800" windowWidth="24540" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="6">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Cholesterol</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>After.4.weeks</t>
+  </si>
+  <si>
+    <t>After.8.weeks</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +92,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +144,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +178,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +213,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,727 +389,616 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Cholesterol</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2">
         <v>6.42</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
       <c r="C3">
         <v>6.76</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>6.56</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
       <c r="C5">
         <v>4.8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
       <c r="C6">
         <v>8.43</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B7" t="s">
+        <v>3</v>
       </c>
       <c r="C7">
         <v>7.49</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B8" t="s">
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>8.050000000000001</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B9" t="s">
+        <v>3</v>
       </c>
       <c r="C9">
         <v>5.05</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B10" t="s">
+        <v>3</v>
       </c>
       <c r="C10">
         <v>5.77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B11" t="s">
+        <v>3</v>
       </c>
       <c r="C11">
         <v>3.91</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B12" t="s">
+        <v>3</v>
       </c>
       <c r="C12">
         <v>6.77</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B13" t="s">
+        <v>3</v>
       </c>
       <c r="C13">
         <v>6.44</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B14" t="s">
+        <v>3</v>
       </c>
       <c r="C14">
         <v>6.17</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B15" t="s">
+        <v>3</v>
       </c>
       <c r="C15">
         <v>7.67</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B16" t="s">
+        <v>3</v>
       </c>
       <c r="C16">
         <v>7.34</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B17" t="s">
+        <v>3</v>
       </c>
       <c r="C17">
         <v>6.85</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B18" t="s">
+        <v>3</v>
       </c>
       <c r="C18">
         <v>5.13</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
+      <c r="B19" t="s">
+        <v>3</v>
       </c>
       <c r="C19">
         <v>5.73</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B20" t="s">
+        <v>4</v>
       </c>
       <c r="C20">
         <v>5.83</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B21" t="s">
+        <v>4</v>
       </c>
       <c r="C21">
         <v>6.2</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B22" t="s">
+        <v>4</v>
       </c>
       <c r="C22">
         <v>5.83</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B23" t="s">
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>4.27</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B24" t="s">
+        <v>4</v>
       </c>
       <c r="C24">
         <v>7.71</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B25" t="s">
+        <v>4</v>
       </c>
       <c r="C25">
         <v>7.12</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B26" t="s">
+        <v>4</v>
       </c>
       <c r="C26">
         <v>7.25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B27" t="s">
+        <v>4</v>
       </c>
       <c r="C27">
         <v>4.63</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B28" t="s">
+        <v>4</v>
       </c>
       <c r="C28">
         <v>5.31</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B29" t="s">
+        <v>4</v>
       </c>
       <c r="C29">
         <v>3.7</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>11</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B30" t="s">
+        <v>4</v>
       </c>
       <c r="C30">
         <v>6.15</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B31" t="s">
+        <v>4</v>
       </c>
       <c r="C31">
         <v>5.59</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>13</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B32" t="s">
+        <v>4</v>
       </c>
       <c r="C32">
         <v>5.56</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>14</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B33" t="s">
+        <v>4</v>
       </c>
       <c r="C33">
         <v>7.11</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>15</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B34" t="s">
+        <v>4</v>
       </c>
       <c r="C34">
         <v>6.84</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>16</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B35" t="s">
+        <v>4</v>
       </c>
       <c r="C35">
         <v>6.4</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>17</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B36" t="s">
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>4.52</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>18</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>After.4.weeks</t>
-        </is>
+      <c r="B37" t="s">
+        <v>4</v>
       </c>
       <c r="C37">
         <v>5.13</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B38" t="s">
+        <v>5</v>
       </c>
       <c r="C38">
         <v>5.75</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B39" t="s">
+        <v>5</v>
       </c>
       <c r="C39">
         <v>6.13</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B40" t="s">
+        <v>5</v>
       </c>
       <c r="C40">
         <v>5.71</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B41" t="s">
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B42" t="s">
+        <v>5</v>
       </c>
       <c r="C42">
         <v>7.67</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>6</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B43" t="s">
+        <v>5</v>
       </c>
       <c r="C43">
         <v>7.05</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B44" t="s">
+        <v>5</v>
       </c>
       <c r="C44">
         <v>7.1</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B45" t="s">
+        <v>5</v>
       </c>
       <c r="C45">
         <v>4.67</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>9</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B46" t="s">
+        <v>5</v>
       </c>
       <c r="C46">
         <v>5.33</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B47" t="s">
+        <v>5</v>
       </c>
       <c r="C47">
         <v>3.66</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>11</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B48" t="s">
+        <v>5</v>
       </c>
       <c r="C48">
         <v>5.96</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>12</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B49" t="s">
+        <v>5</v>
       </c>
       <c r="C49">
         <v>5.64</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>13</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B50" t="s">
+        <v>5</v>
       </c>
       <c r="C50">
         <v>5.51</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>14</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B51" t="s">
+        <v>5</v>
       </c>
       <c r="C51">
         <v>6.96</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>15</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B52" t="s">
+        <v>5</v>
       </c>
       <c r="C52">
         <v>6.82</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>16</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B53" t="s">
+        <v>5</v>
       </c>
       <c r="C53">
         <v>6.29</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>17</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B54" t="s">
+        <v>5</v>
       </c>
       <c r="C54">
         <v>4.45</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>18</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>After.8.weeks</t>
-        </is>
+      <c r="B55" t="s">
+        <v>5</v>
       </c>
       <c r="C55">
         <v>5.17</v>
